--- a/test/inputs/Scenarios.xlsx
+++ b/test/inputs/Scenarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tigerault\package\Wheat-BRIDGES\Root_BRIDGES\test\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tigerault\package\Wheat-BRIDGES\Root_BRIDGES\simulations\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3CB700-122F-4B50-ACB7-3B2763AB1EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AC22CC-7006-4768-8A10-9B22FF9C8874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="496">
   <si>
     <t>input_file</t>
   </si>
@@ -1461,9 +1461,6 @@
     <t>T1</t>
   </si>
   <si>
-    <t>T2</t>
-  </si>
-  <si>
     <t>Input</t>
   </si>
   <si>
@@ -1513,6 +1510,18 @@
   </si>
   <si>
     <t>water_root_shoot_xylem</t>
+  </si>
+  <si>
+    <t>RB1</t>
+  </si>
+  <si>
+    <t>Dedicated_to</t>
+  </si>
+  <si>
+    <t>root_bridges</t>
+  </si>
+  <si>
+    <t>Organ_label</t>
   </si>
 </sst>
 </file>
@@ -2673,5484 +2682,6697 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="H173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="32.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="6" width="19.5703125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="8" width="19.5703125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="39.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>477</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>473</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="I1" s="38" t="s">
         <v>474</v>
       </c>
-      <c r="H1" s="38" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="38" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="37" t="str">
+        <f>G2</f>
+        <v>sucrose_input_Swinnen_et_al_1994.csv</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="37" t="str">
-        <f>E2</f>
-        <v>sucrose_input_Swinnen_et_al_1994.csv</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="G3" s="54" t="s">
+        <v>488</v>
+      </c>
+      <c r="H3" s="37" t="str">
+        <f>G3</f>
+        <v>inputs_CN_Wheat_Ljutovac_2003.csv</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>488</v>
+      </c>
+      <c r="H4" s="37" t="str">
+        <f t="shared" ref="H4:H5" si="0">G4</f>
+        <v>inputs_CN_Wheat_Ljutovac_2003.csv</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>489</v>
-      </c>
-      <c r="F3" s="37" t="str">
-        <f>E3</f>
-        <v>inputs_CN_Wheat_Ljutovac_2003.csv</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B5" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="F5" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="G5" s="54" t="s">
         <v>488</v>
       </c>
-      <c r="E4" s="54" t="s">
-        <v>489</v>
-      </c>
-      <c r="F4" s="37" t="str">
-        <f t="shared" ref="F4:F5" si="0">E4</f>
-        <v>inputs_CN_Wheat_Ljutovac_2003.csv</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>489</v>
-      </c>
-      <c r="F5" s="37" t="str">
+      <c r="H5" s="37" t="str">
         <f t="shared" si="0"/>
         <v>inputs_CN_Wheat_Ljutovac_2003.csv</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C6" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="G6" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="88" t="str">
-        <f>E6</f>
+      <c r="H6" s="88" t="str">
+        <f>G6</f>
         <v>True</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="I6" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="J6" s="80" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="57">
+      <c r="G7" s="57">
         <v>1</v>
       </c>
-      <c r="F7" s="88">
-        <f t="shared" ref="F7:F67" si="1">E7</f>
+      <c r="H7" s="88">
+        <f t="shared" ref="H7:H67" si="1">G7</f>
         <v>1</v>
       </c>
-      <c r="G7" s="80">
+      <c r="I7" s="80">
         <v>1</v>
       </c>
-      <c r="H7" s="80">
+      <c r="J7" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
         <v>448</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C8" s="78" t="s">
+        <v>477</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E8" s="78" t="s">
         <v>449</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="F8" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="G8" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="88" t="str">
+      <c r="H8" s="88" t="str">
         <f t="shared" si="1"/>
         <v>False</v>
       </c>
-      <c r="G8" s="80" t="s">
+      <c r="I8" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="80" t="s">
+      <c r="J8" s="80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C9" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="56">
+      <c r="G9" s="56">
         <v>60</v>
       </c>
-      <c r="F9" s="88">
+      <c r="H9" s="88">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G9" s="89">
+      <c r="I9" s="89">
         <v>180</v>
       </c>
-      <c r="H9" s="89">
+      <c r="J9" s="89">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C10" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="42">
+      <c r="G10" s="42">
         <v>4.1666666999999998E-2</v>
       </c>
-      <c r="F10" s="88">
+      <c r="H10" s="88">
         <f t="shared" si="1"/>
         <v>4.1666666999999998E-2</v>
       </c>
-      <c r="G10" s="81">
+      <c r="I10" s="81">
         <v>4.1666666999999998E-2</v>
       </c>
-      <c r="H10" s="81">
+      <c r="J10" s="81">
         <v>4.1666666999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C11" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="56">
+      <c r="G11" s="56">
         <v>5</v>
       </c>
-      <c r="F11" s="88">
+      <c r="H11" s="88">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G11" s="82">
+      <c r="I11" s="82">
         <v>4.1666666999999998E-2</v>
       </c>
-      <c r="H11" s="82">
+      <c r="J11" s="82">
         <v>4.1666666999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C12" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="54">
+      <c r="G12" s="54">
         <v>1</v>
       </c>
-      <c r="F12" s="88">
+      <c r="H12" s="88">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G12" s="80">
+      <c r="I12" s="80">
         <v>1</v>
       </c>
-      <c r="H12" s="80">
+      <c r="J12" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>452</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C13" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="54">
+      <c r="G13" s="54">
         <v>0</v>
       </c>
-      <c r="F13" s="88">
+      <c r="H13" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="80">
+      <c r="I13" s="80">
         <v>0</v>
       </c>
-      <c r="H13" s="80">
+      <c r="J13" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C14" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="G14" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="88" t="str">
+      <c r="H14" s="88" t="str">
         <f t="shared" si="1"/>
         <v>False</v>
       </c>
-      <c r="G14" s="80" t="s">
+      <c r="I14" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="J14" s="80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C15" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="43">
+      <c r="G15" s="43">
         <v>5.0000000000000001E-9</v>
       </c>
-      <c r="F15" s="88">
+      <c r="H15" s="88">
         <f t="shared" si="1"/>
         <v>5.0000000000000001E-9</v>
       </c>
-      <c r="G15" s="83">
+      <c r="I15" s="83">
         <v>5.0000000000000001E-9</v>
       </c>
-      <c r="H15" s="83">
+      <c r="J15" s="83">
         <v>5.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C16" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="E16" s="54">
+      <c r="G16" s="54">
         <v>10</v>
       </c>
-      <c r="F16" s="88">
+      <c r="H16" s="88">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G16" s="80">
+      <c r="I16" s="80">
         <v>10</v>
       </c>
-      <c r="H16" s="80">
+      <c r="J16" s="80">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>465</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C17" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="G17" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="88" t="str">
+      <c r="H17" s="88" t="str">
         <f t="shared" si="1"/>
         <v>False</v>
       </c>
-      <c r="G17" s="80" t="s">
+      <c r="I17" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="80" t="s">
+      <c r="J17" s="80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>466</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C18" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="G18" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="88" t="str">
+      <c r="H18" s="88" t="str">
         <f t="shared" si="1"/>
         <v>False</v>
       </c>
-      <c r="G18" s="80" t="s">
+      <c r="I18" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="80" t="s">
+      <c r="J18" s="80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>469</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C19" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="G19" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="88" t="str">
+      <c r="H19" s="88" t="str">
         <f t="shared" si="1"/>
         <v>False</v>
       </c>
-      <c r="G19" s="80" t="s">
+      <c r="I19" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="80" t="s">
+      <c r="J19" s="80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>471</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C20" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="E20" s="54">
+      <c r="G20" s="54">
         <v>86400</v>
       </c>
-      <c r="F20" s="88">
+      <c r="H20" s="88">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="G20" s="80">
+      <c r="I20" s="80">
         <v>86400</v>
       </c>
-      <c r="H20" s="80">
+      <c r="J20" s="80">
         <v>86400</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C21" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="G21" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="88" t="str">
+      <c r="H21" s="88" t="str">
         <f t="shared" si="1"/>
         <v>True</v>
       </c>
-      <c r="G21" s="89" t="s">
+      <c r="I21" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="89" t="s">
+      <c r="J21" s="89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C22" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="55">
+      <c r="G22" s="55">
         <v>3</v>
       </c>
-      <c r="F22" s="88">
+      <c r="H22" s="88">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G22" s="80">
+      <c r="I22" s="80">
         <v>3</v>
       </c>
-      <c r="H22" s="80">
+      <c r="J22" s="80">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>363</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C23" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="G23" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="88" t="str">
+      <c r="H23" s="88" t="str">
         <f t="shared" si="1"/>
         <v>False</v>
       </c>
-      <c r="G23" s="84" t="s">
+      <c r="I23" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="84" t="s">
+      <c r="J23" s="84" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>365</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C24" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="G24" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="88" t="str">
+      <c r="H24" s="88" t="str">
         <f t="shared" si="1"/>
         <v>False</v>
       </c>
-      <c r="G24" s="84" t="s">
+      <c r="I24" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="84" t="s">
+      <c r="J24" s="84" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>377</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C25" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="G25" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="88" t="str">
+      <c r="H25" s="88" t="str">
         <f t="shared" si="1"/>
         <v>False</v>
       </c>
-      <c r="G25" s="80" t="s">
+      <c r="I25" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="80" t="s">
+      <c r="J25" s="80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>376</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C26" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="G26" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="88" t="str">
+      <c r="H26" s="88" t="str">
         <f t="shared" si="1"/>
         <v>False</v>
       </c>
-      <c r="G26" s="84" t="s">
+      <c r="I26" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="84" t="s">
+      <c r="J26" s="84" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>375</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C27" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="G27" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="88" t="str">
+      <c r="H27" s="88" t="str">
         <f t="shared" si="1"/>
         <v>False</v>
       </c>
-      <c r="G27" s="84" t="s">
+      <c r="I27" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="84" t="s">
+      <c r="J27" s="84" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C28" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="G28" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="88" t="str">
+      <c r="H28" s="88" t="str">
         <f t="shared" si="1"/>
         <v>False</v>
       </c>
-      <c r="G28" s="80" t="s">
+      <c r="I28" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="H28" s="80" t="s">
+      <c r="J28" s="80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C29" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="F29" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="55">
+      <c r="G29" s="55">
         <v>0.33</v>
       </c>
-      <c r="F29" s="88">
+      <c r="H29" s="88">
         <f t="shared" si="1"/>
         <v>0.33</v>
       </c>
-      <c r="G29" s="80">
+      <c r="I29" s="80">
         <v>0.33</v>
       </c>
-      <c r="H29" s="80">
+      <c r="J29" s="80">
         <v>0.33</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C30" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="G30" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="88" t="str">
+      <c r="H30" s="88" t="str">
         <f t="shared" si="1"/>
         <v>False</v>
       </c>
-      <c r="G30" s="80" t="s">
+      <c r="I30" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="H30" s="80" t="s">
+      <c r="J30" s="80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C31" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="G31" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="88" t="str">
+      <c r="H31" s="88" t="str">
         <f t="shared" si="1"/>
         <v>False</v>
       </c>
-      <c r="G31" s="80" t="s">
+      <c r="I31" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="H31" s="80" t="s">
+      <c r="J31" s="80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>458</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C32" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="G32" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="88" t="str">
+      <c r="H32" s="88" t="str">
         <f t="shared" si="1"/>
         <v>False</v>
       </c>
-      <c r="G32" s="80" t="s">
+      <c r="I32" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="H32" s="80" t="s">
+      <c r="J32" s="80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C33" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="F33" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="G33" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="88" t="str">
+      <c r="H33" s="88" t="str">
         <f t="shared" si="1"/>
         <v>True</v>
       </c>
-      <c r="G33" s="80" t="s">
+      <c r="I33" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="H33" s="80" t="s">
+      <c r="J33" s="80" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C34" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="F34" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="G34" s="45" t="s">
         <v>383</v>
       </c>
-      <c r="F34" s="88" t="str">
+      <c r="H34" s="88" t="str">
         <f t="shared" si="1"/>
         <v>total_exchange_surface_with_soil_solution</v>
       </c>
-      <c r="G34" s="89" t="s">
+      <c r="I34" s="89" t="s">
         <v>437</v>
       </c>
-      <c r="H34" s="89" t="s">
+      <c r="J34" s="89" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C35" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="F35" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="45">
+      <c r="G35" s="45">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F35" s="88">
+      <c r="H35" s="88">
         <f t="shared" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G35" s="83">
+      <c r="I35" s="83">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="H35" s="83">
+      <c r="J35" s="83">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C36" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="F36" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="45">
+      <c r="G36" s="45">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F36" s="88">
+      <c r="H36" s="88">
         <f t="shared" si="1"/>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="G36" s="90">
+      <c r="I36" s="90">
         <v>1E-3</v>
       </c>
-      <c r="H36" s="90">
+      <c r="J36" s="90">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C37" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="F37" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="53" t="s">
+      <c r="G37" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="88" t="str">
+      <c r="H37" s="88" t="str">
         <f t="shared" si="1"/>
         <v>True</v>
       </c>
-      <c r="G37" s="80" t="s">
+      <c r="I37" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="H37" s="80" t="s">
+      <c r="J37" s="80" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C38" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="F38" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="53" t="s">
+      <c r="G38" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F38" s="88" t="str">
+      <c r="H38" s="88" t="str">
         <f t="shared" si="1"/>
         <v>jet</v>
       </c>
-      <c r="G38" s="80" t="s">
+      <c r="I38" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="H38" s="80" t="s">
+      <c r="J38" s="80" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C39" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="F39" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="G39" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="88" t="str">
+      <c r="H39" s="88" t="str">
         <f t="shared" si="1"/>
         <v>True</v>
       </c>
-      <c r="G39" s="80" t="s">
+      <c r="I39" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="H39" s="80" t="s">
+      <c r="J39" s="80" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C40" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="F40" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="G40" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F40" s="88" t="str">
+      <c r="H40" s="88" t="str">
         <f t="shared" si="1"/>
         <v>False</v>
       </c>
-      <c r="G40" s="80" t="s">
+      <c r="I40" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="H40" s="80" t="s">
+      <c r="J40" s="80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C41" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="F41" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="53">
+      <c r="G41" s="53">
         <v>120</v>
       </c>
-      <c r="F41" s="88">
+      <c r="H41" s="88">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="G41" s="80">
+      <c r="I41" s="80">
         <v>120</v>
       </c>
-      <c r="H41" s="80">
+      <c r="J41" s="80">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C42" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="F42" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E42" s="53">
+      <c r="G42" s="53">
         <v>0</v>
       </c>
-      <c r="F42" s="88">
+      <c r="H42" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G42" s="80">
+      <c r="I42" s="80">
         <v>0</v>
       </c>
-      <c r="H42" s="80">
+      <c r="J42" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C43" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="F43" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="53">
+      <c r="G43" s="53">
         <v>0</v>
       </c>
-      <c r="F43" s="88">
+      <c r="H43" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G43" s="80">
+      <c r="I43" s="80">
         <v>0</v>
       </c>
-      <c r="H43" s="80">
+      <c r="J43" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C44" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="F44" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="53">
+      <c r="G44" s="53">
         <v>-0.1</v>
       </c>
-      <c r="F44" s="88">
+      <c r="H44" s="88">
         <f t="shared" si="1"/>
         <v>-0.1</v>
       </c>
-      <c r="G44" s="80">
+      <c r="I44" s="80">
         <v>-0.1</v>
       </c>
-      <c r="H44" s="80">
+      <c r="J44" s="80">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C45" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="F45" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E45" s="53">
+      <c r="G45" s="53">
         <v>-0.2</v>
       </c>
-      <c r="F45" s="88">
+      <c r="H45" s="88">
         <f t="shared" si="1"/>
         <v>-0.2</v>
       </c>
-      <c r="G45" s="80">
+      <c r="I45" s="80">
         <v>-0.2</v>
       </c>
-      <c r="H45" s="80">
+      <c r="J45" s="80">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C46" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E46" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="F46" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="53">
+      <c r="G46" s="53">
         <v>0.4</v>
       </c>
-      <c r="F46" s="88">
+      <c r="H46" s="88">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="G46" s="80">
+      <c r="I46" s="80">
         <v>0.4</v>
       </c>
-      <c r="H46" s="80">
+      <c r="J46" s="80">
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C47" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E47" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="F47" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="53">
+      <c r="G47" s="53">
         <v>0</v>
       </c>
-      <c r="F47" s="88">
+      <c r="H47" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G47" s="80">
+      <c r="I47" s="80">
         <v>0</v>
       </c>
-      <c r="H47" s="80">
+      <c r="J47" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>438</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C48" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E48" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="F48" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="53">
+      <c r="G48" s="53">
         <v>1200</v>
       </c>
-      <c r="F48" s="88">
+      <c r="H48" s="88">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="G48" s="80">
+      <c r="I48" s="80">
         <v>1200</v>
       </c>
-      <c r="H48" s="80">
+      <c r="J48" s="80">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>439</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C49" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E49" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="F49" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="53">
+      <c r="G49" s="53">
         <v>1200</v>
       </c>
-      <c r="F49" s="88">
+      <c r="H49" s="88">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="G49" s="80">
+      <c r="I49" s="80">
         <v>1200</v>
       </c>
-      <c r="H49" s="80">
+      <c r="J49" s="80">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>461</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C50" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E50" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="F50" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="E50" s="53" t="s">
+      <c r="G50" s="53" t="s">
         <v>464</v>
       </c>
-      <c r="F50" s="88" t="str">
+      <c r="H50" s="88" t="str">
         <f t="shared" si="1"/>
         <v>[94,76,64]</v>
       </c>
-      <c r="G50" s="37" t="s">
+      <c r="I50" s="37" t="s">
         <v>464</v>
       </c>
-      <c r="H50" s="37" t="s">
+      <c r="J50" s="37" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C51" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E51" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="F51" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="53" t="s">
+      <c r="G51" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F51" s="88" t="str">
+      <c r="H51" s="88" t="str">
         <f t="shared" si="1"/>
         <v>True</v>
       </c>
-      <c r="G51" s="80" t="s">
+      <c r="I51" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="H51" s="80" t="s">
+      <c r="J51" s="80" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C52" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="F52" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="58" t="s">
+      <c r="G52" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="F52" s="88" t="str">
+      <c r="H52" s="88" t="str">
         <f t="shared" si="1"/>
         <v>True</v>
       </c>
-      <c r="G52" s="80" t="s">
+      <c r="I52" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="H52" s="80" t="s">
+      <c r="J52" s="80" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C53" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="F53" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="58">
+      <c r="G53" s="58">
         <v>0</v>
       </c>
-      <c r="F53" s="88">
+      <c r="H53" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G53" s="80">
+      <c r="I53" s="80">
         <v>0</v>
       </c>
-      <c r="H53" s="80">
+      <c r="J53" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C54" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="F54" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E54" s="58">
+      <c r="G54" s="58">
         <v>0.5</v>
       </c>
-      <c r="F54" s="88">
+      <c r="H54" s="88">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G54" s="80">
+      <c r="I54" s="80">
         <v>0.5</v>
       </c>
-      <c r="H54" s="80">
+      <c r="J54" s="80">
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C55" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E55" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="F55" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E55" s="58">
+      <c r="G55" s="58">
         <v>0.05</v>
       </c>
-      <c r="F55" s="88">
+      <c r="H55" s="88">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="G55" s="80">
+      <c r="I55" s="80">
         <v>0.05</v>
       </c>
-      <c r="H55" s="80">
+      <c r="J55" s="80">
         <v>0.05</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C56" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="F56" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E56" s="59">
+      <c r="G56" s="59">
         <v>1E-3</v>
       </c>
-      <c r="F56" s="88">
+      <c r="H56" s="88">
         <f t="shared" si="1"/>
         <v>1E-3</v>
       </c>
-      <c r="G56" s="83">
+      <c r="I56" s="83">
         <v>1E-3</v>
       </c>
-      <c r="H56" s="83">
+      <c r="J56" s="83">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>380</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C57" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="F57" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="59">
+      <c r="G57" s="59">
         <v>0</v>
       </c>
-      <c r="F57" s="88">
+      <c r="H57" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G57" s="80">
+      <c r="I57" s="80">
         <v>0</v>
       </c>
-      <c r="H57" s="80">
+      <c r="J57" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C58" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="F58" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="E58" s="47">
+      <c r="G58" s="47">
         <v>1E-4</v>
       </c>
-      <c r="F58" s="88">
+      <c r="H58" s="88">
         <f t="shared" si="1"/>
         <v>1E-4</v>
       </c>
-      <c r="G58" s="80">
+      <c r="I58" s="80">
         <v>1E-4</v>
       </c>
-      <c r="H58" s="80">
+      <c r="J58" s="80">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C59" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="F59" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="E59" s="47">
+      <c r="G59" s="47">
         <v>1E-4</v>
       </c>
-      <c r="F59" s="88">
+      <c r="H59" s="88">
         <f t="shared" si="1"/>
         <v>1E-4</v>
       </c>
-      <c r="G59" s="80">
+      <c r="I59" s="80">
         <v>1E-4</v>
       </c>
-      <c r="H59" s="80">
+      <c r="J59" s="80">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C60" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E60" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="F60" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E60" s="62">
+      <c r="G60" s="62">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="F60" s="88">
+      <c r="H60" s="88">
         <f t="shared" si="1"/>
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="G60" s="80">
+      <c r="I60" s="80">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="H60" s="80">
+      <c r="J60" s="80">
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C61" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E61" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="F61" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E61" s="62">
+      <c r="G61" s="62">
         <v>1.22E-4</v>
       </c>
-      <c r="F61" s="88">
+      <c r="H61" s="88">
         <f t="shared" si="1"/>
         <v>1.22E-4</v>
       </c>
-      <c r="G61" s="80">
+      <c r="I61" s="80">
         <v>1.22E-4</v>
       </c>
-      <c r="H61" s="80">
+      <c r="J61" s="80">
         <v>1.22E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C62" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E62" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="F62" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E62" s="62">
+      <c r="G62" s="62">
         <v>1</v>
       </c>
-      <c r="F62" s="88">
+      <c r="H62" s="88">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G62" s="80">
+      <c r="I62" s="80">
         <v>1</v>
       </c>
-      <c r="H62" s="80">
+      <c r="J62" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C63" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E63" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="F63" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E63" s="62">
+      <c r="G63" s="62">
         <v>0.95</v>
       </c>
-      <c r="F63" s="88">
+      <c r="H63" s="88">
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="G63" s="80">
+      <c r="I63" s="80">
         <v>0.95</v>
       </c>
-      <c r="H63" s="80">
+      <c r="J63" s="80">
         <v>0.95</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>407</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C64" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E64" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="F64" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E64" s="62" t="s">
+      <c r="G64" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="F64" s="88" t="str">
+      <c r="H64" s="88" t="str">
         <f t="shared" si="1"/>
         <v>False</v>
       </c>
-      <c r="G64" s="80" t="s">
+      <c r="I64" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="H64" s="80" t="s">
+      <c r="J64" s="80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>91</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C65" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E65" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="F65" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E65" s="62">
+      <c r="G65" s="62">
         <v>5</v>
       </c>
-      <c r="F65" s="88">
+      <c r="H65" s="88">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G65" s="80">
+      <c r="I65" s="80">
         <v>5</v>
       </c>
-      <c r="H65" s="80">
+      <c r="J65" s="80">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>409</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C66" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E66" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="F66" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E66" s="62" t="s">
+      <c r="G66" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="F66" s="88" t="str">
+      <c r="H66" s="88" t="str">
         <f t="shared" si="1"/>
         <v>False</v>
       </c>
-      <c r="G66" s="80" t="s">
+      <c r="I66" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="H66" s="80" t="s">
+      <c r="J66" s="80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C67" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E67" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="F67" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E67" s="62">
+      <c r="G67" s="62">
         <v>50</v>
       </c>
-      <c r="F67" s="88">
+      <c r="H67" s="88">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="G67" s="80">
+      <c r="I67" s="80">
         <v>50</v>
       </c>
-      <c r="H67" s="80">
+      <c r="J67" s="80">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>208</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C68" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E68" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="F68" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E68" s="48">
+      <c r="G68" s="48">
         <v>1453890.8941884842</v>
       </c>
-      <c r="F68" s="88">
-        <f t="shared" ref="F68:F131" si="2">E68</f>
+      <c r="H68" s="88">
+        <f t="shared" ref="H68:H131" si="2">G68</f>
         <v>1453890.8941884842</v>
       </c>
-      <c r="G68" s="81">
+      <c r="I68" s="81">
         <v>1453890.8941884842</v>
       </c>
-      <c r="H68" s="81">
+      <c r="J68" s="81">
         <v>1453890.8941884842</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C69" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E69" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="F69" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E69" s="62">
+      <c r="G69" s="62">
         <v>1.3888888888888888E-5</v>
       </c>
-      <c r="F69" s="88">
+      <c r="H69" s="88">
         <f t="shared" si="2"/>
         <v>1.3888888888888888E-5</v>
       </c>
-      <c r="G69" s="81">
+      <c r="I69" s="81">
         <v>1.3888888888888888E-5</v>
       </c>
-      <c r="H69" s="81">
+      <c r="J69" s="81">
         <v>1.3888888888888888E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C70" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E70" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="F70" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E70" s="62">
+      <c r="G70" s="62">
         <v>4.5763888888888888E-4</v>
       </c>
-      <c r="F70" s="88">
+      <c r="H70" s="88">
         <f t="shared" si="2"/>
         <v>4.5763888888888888E-4</v>
       </c>
-      <c r="G70" s="82">
+      <c r="I70" s="82">
         <v>6.5011574074074071E-4</v>
       </c>
-      <c r="H70" s="82">
+      <c r="J70" s="82">
         <v>6.5011574074074071E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C71" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E71" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="F71" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E71" s="62">
+      <c r="G71" s="62">
         <v>3.63E-3</v>
       </c>
-      <c r="F71" s="88">
+      <c r="H71" s="88">
         <f t="shared" si="2"/>
         <v>3.63E-3</v>
       </c>
-      <c r="G71" s="89">
+      <c r="I71" s="89">
         <v>4.7400000000000003E-3</v>
       </c>
-      <c r="H71" s="89">
+      <c r="J71" s="89">
         <v>4.7400000000000003E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C72" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E72" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="F72" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E72" s="48">
+      <c r="G72" s="48">
         <v>491356.80000000005</v>
       </c>
-      <c r="F72" s="88">
+      <c r="H72" s="88">
         <f t="shared" si="2"/>
         <v>491356.80000000005</v>
       </c>
-      <c r="G72" s="82">
+      <c r="I72" s="82">
         <v>282528</v>
       </c>
-      <c r="H72" s="82">
+      <c r="J72" s="82">
         <v>282528</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C73" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E73" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="F73" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E73" s="62">
+      <c r="G73" s="62">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F73" s="88">
+      <c r="H73" s="88">
         <f t="shared" si="2"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="G73" s="89">
+      <c r="I73" s="89">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H73" s="89">
+      <c r="J73" s="89">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C74" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E74" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="F74" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E74" s="62">
+      <c r="G74" s="62">
         <v>0.25862068965517243</v>
       </c>
-      <c r="F74" s="88">
+      <c r="H74" s="88">
         <f t="shared" si="2"/>
         <v>0.25862068965517243</v>
       </c>
-      <c r="G74" s="91">
+      <c r="I74" s="91">
         <v>0.16</v>
       </c>
-      <c r="H74" s="91">
+      <c r="J74" s="91">
         <v>0.16</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C75" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E75" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="F75" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E75" s="62">
+      <c r="G75" s="62">
         <v>0</v>
       </c>
-      <c r="F75" s="88">
+      <c r="H75" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G75" s="80">
+      <c r="I75" s="80">
         <v>0</v>
       </c>
-      <c r="H75" s="80">
+      <c r="J75" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
         <v>50</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C76" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E76" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="D76" s="36" t="s">
+      <c r="F76" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="E76" s="63">
+      <c r="G76" s="63">
         <v>745476480000</v>
       </c>
-      <c r="F76" s="88">
+      <c r="H76" s="88">
         <f t="shared" si="2"/>
         <v>745476480000</v>
       </c>
-      <c r="G76" s="81">
+      <c r="I76" s="81">
         <v>745476480000</v>
       </c>
-      <c r="H76" s="81">
+      <c r="J76" s="81">
         <v>745476480000</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
         <v>205</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C77" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E77" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="D77" s="36" t="s">
+      <c r="F77" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="E77" s="63">
+      <c r="G77" s="63">
         <v>100</v>
       </c>
-      <c r="F77" s="88">
+      <c r="H77" s="88">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G77" s="80">
+      <c r="I77" s="80">
         <v>100</v>
       </c>
-      <c r="H77" s="80">
+      <c r="J77" s="80">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
         <v>415</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C78" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E78" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="D78" s="36" t="s">
+      <c r="F78" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="E78" s="63" t="s">
+      <c r="G78" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="F78" s="88" t="str">
+      <c r="H78" s="88" t="str">
         <f t="shared" si="2"/>
         <v>True</v>
       </c>
-      <c r="G78" s="80" t="s">
+      <c r="I78" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="H78" s="80" t="s">
+      <c r="J78" s="80" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="35" t="s">
         <v>401</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C79" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E79" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="D79" s="36" t="s">
+      <c r="F79" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="E79" s="63">
+      <c r="G79" s="63">
         <v>29203.200000000001</v>
       </c>
-      <c r="F79" s="88">
+      <c r="H79" s="88">
         <f t="shared" si="2"/>
         <v>29203.200000000001</v>
       </c>
-      <c r="G79" s="89">
+      <c r="I79" s="89">
         <v>21600</v>
       </c>
-      <c r="H79" s="89">
+      <c r="J79" s="89">
         <v>21600</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="35" t="s">
         <v>411</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C80" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E80" s="36" t="s">
         <v>417</v>
       </c>
-      <c r="D80" s="36" t="s">
+      <c r="F80" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="E80" s="63">
+      <c r="G80" s="63">
         <v>0.5</v>
       </c>
-      <c r="F80" s="88">
+      <c r="H80" s="88">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="G80" s="80">
+      <c r="I80" s="80">
         <v>0.5</v>
       </c>
-      <c r="H80" s="80">
+      <c r="J80" s="80">
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="35" t="s">
         <v>402</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C81" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E81" s="36" t="s">
         <v>416</v>
       </c>
-      <c r="D81" s="36" t="s">
+      <c r="F81" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="E81" s="63">
+      <c r="G81" s="63">
         <v>387936</v>
       </c>
-      <c r="F81" s="88">
+      <c r="H81" s="88">
         <f t="shared" si="2"/>
         <v>387936</v>
       </c>
-      <c r="G81" s="89">
+      <c r="I81" s="89">
         <v>60479.999999999993</v>
       </c>
-      <c r="H81" s="89">
+      <c r="J81" s="89">
         <v>60479.999999999993</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="35" t="s">
         <v>412</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C82" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E82" s="36" t="s">
         <v>418</v>
       </c>
-      <c r="D82" s="36" t="s">
+      <c r="F82" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="E82" s="63">
+      <c r="G82" s="63">
         <v>0.85</v>
       </c>
-      <c r="F82" s="88">
+      <c r="H82" s="88">
         <f t="shared" si="2"/>
         <v>0.85</v>
       </c>
-      <c r="G82" s="80">
+      <c r="I82" s="80">
         <v>0.85</v>
       </c>
-      <c r="H82" s="80">
+      <c r="J82" s="80">
         <v>0.85</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="35" t="s">
         <v>403</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C83" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E83" s="36" t="s">
         <v>405</v>
       </c>
-      <c r="D83" s="36" t="s">
+      <c r="F83" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="E83" s="63">
+      <c r="G83" s="63">
         <v>518400</v>
       </c>
-      <c r="F83" s="88">
+      <c r="H83" s="88">
         <f t="shared" si="2"/>
         <v>518400</v>
       </c>
-      <c r="G83" s="80">
+      <c r="I83" s="80">
         <v>518400</v>
       </c>
-      <c r="H83" s="80">
+      <c r="J83" s="80">
         <v>518400</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="35" t="s">
         <v>413</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C84" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E84" s="36" t="s">
         <v>406</v>
       </c>
-      <c r="D84" s="36" t="s">
+      <c r="F84" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="E84" s="63">
+      <c r="G84" s="63">
         <v>5184000</v>
       </c>
-      <c r="F84" s="88">
+      <c r="H84" s="88">
         <f t="shared" si="2"/>
         <v>5184000</v>
       </c>
-      <c r="G84" s="80">
+      <c r="I84" s="80">
         <v>5184000</v>
       </c>
-      <c r="H84" s="80">
+      <c r="J84" s="80">
         <v>5184000</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C85" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E85" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="F85" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E85" s="62">
+      <c r="G85" s="62">
         <v>259200</v>
       </c>
-      <c r="F85" s="88">
+      <c r="H85" s="88">
         <f t="shared" si="2"/>
         <v>259200</v>
       </c>
-      <c r="G85" s="90">
+      <c r="I85" s="90">
         <v>50000</v>
       </c>
-      <c r="H85" s="90">
+      <c r="J85" s="90">
         <v>50000</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C86" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E86" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="F86" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="E86" s="62">
+      <c r="G86" s="62">
         <v>140000</v>
       </c>
-      <c r="F86" s="88">
+      <c r="H86" s="88">
         <f t="shared" si="2"/>
         <v>140000</v>
       </c>
-      <c r="G86" s="80">
+      <c r="I86" s="80">
         <v>140000</v>
       </c>
-      <c r="H86" s="80">
+      <c r="J86" s="80">
         <v>140000</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C87" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E87" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="F87" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="E87" s="62">
+      <c r="G87" s="62">
         <v>3.6636136999999999E-2</v>
       </c>
-      <c r="F87" s="88">
+      <c r="H87" s="88">
         <f t="shared" si="2"/>
         <v>3.6636136999999999E-2</v>
       </c>
-      <c r="G87" s="81">
+      <c r="I87" s="81">
         <v>3.6636136999999999E-2</v>
       </c>
-      <c r="H87" s="81">
+      <c r="J87" s="81">
         <v>3.6636136999999999E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C88" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E88" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="F88" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E88" s="62">
+      <c r="G88" s="62">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="F88" s="88">
+      <c r="H88" s="88">
         <f t="shared" si="2"/>
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="G88" s="80">
+      <c r="I88" s="80">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="H88" s="80">
+      <c r="J88" s="80">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C89" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E89" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="F89" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E89" s="62">
+      <c r="G89" s="62">
         <v>0.05</v>
       </c>
-      <c r="F89" s="88">
+      <c r="H89" s="88">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="G89" s="80">
+      <c r="I89" s="80">
         <v>0.05</v>
       </c>
-      <c r="H89" s="80">
+      <c r="J89" s="80">
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>214</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C90" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E90" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="D90" s="20" t="s">
+      <c r="F90" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E90" s="64">
+      <c r="G90" s="64">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="F90" s="88">
+      <c r="H90" s="88">
         <f t="shared" si="2"/>
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="G90" s="80">
+      <c r="I90" s="80">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="H90" s="80">
+      <c r="J90" s="80">
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
         <v>215</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C91" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E91" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="D91" s="20" t="s">
+      <c r="F91" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E91" s="64">
+      <c r="G91" s="64">
         <v>1E-3</v>
       </c>
-      <c r="F91" s="88">
+      <c r="H91" s="88">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-      <c r="G91" s="80">
+      <c r="I91" s="80">
         <v>1E-3</v>
       </c>
-      <c r="H91" s="80">
+      <c r="J91" s="80">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
         <v>216</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C92" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E92" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="D92" s="20" t="s">
+      <c r="F92" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="E92" s="64">
+      <c r="G92" s="64">
         <v>374999999.99999994</v>
       </c>
-      <c r="F92" s="88">
+      <c r="H92" s="88">
         <f t="shared" si="2"/>
         <v>374999999.99999994</v>
       </c>
-      <c r="G92" s="80">
+      <c r="I92" s="80">
         <v>374999999.99999994</v>
       </c>
-      <c r="H92" s="80">
+      <c r="J92" s="80">
         <v>374999999.99999994</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>217</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C93" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E93" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="D93" s="20" t="s">
+      <c r="F93" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="E93" s="64">
+      <c r="G93" s="64">
         <v>3.7037037037037038E-3</v>
       </c>
-      <c r="F93" s="88">
+      <c r="H93" s="88">
         <f t="shared" si="2"/>
         <v>3.7037037037037038E-3</v>
       </c>
-      <c r="G93" s="81">
+      <c r="I93" s="81">
         <v>3.7037037037037038E-3</v>
       </c>
-      <c r="H93" s="81">
+      <c r="J93" s="81">
         <v>3.7037037037037038E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>218</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C94" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E94" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="D94" s="20" t="s">
+      <c r="F94" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="E94" s="64">
+      <c r="G94" s="64">
         <v>165600</v>
       </c>
-      <c r="F94" s="88">
+      <c r="H94" s="88">
         <f t="shared" si="2"/>
         <v>165600</v>
       </c>
-      <c r="G94" s="80">
+      <c r="I94" s="80">
         <v>165600</v>
       </c>
-      <c r="H94" s="80">
+      <c r="J94" s="80">
         <v>165600</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C95" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E95" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="F95" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E95" s="53">
+      <c r="G95" s="53">
         <v>20</v>
       </c>
-      <c r="F95" s="88">
+      <c r="H95" s="88">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G95" s="80">
+      <c r="I95" s="80">
         <v>20</v>
       </c>
-      <c r="H95" s="80">
+      <c r="J95" s="80">
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C96" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E96" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="F96" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E96" s="53">
+      <c r="G96" s="53">
         <v>1</v>
       </c>
-      <c r="F96" s="88">
+      <c r="H96" s="88">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G96" s="80">
+      <c r="I96" s="80">
         <v>1</v>
       </c>
-      <c r="H96" s="80">
+      <c r="J96" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C97" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E97" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="F97" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E97" s="53">
+      <c r="G97" s="53">
         <v>21</v>
       </c>
-      <c r="F97" s="88">
+      <c r="H97" s="88">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="G97" s="80">
+      <c r="I97" s="80">
         <v>21</v>
       </c>
-      <c r="H97" s="80">
+      <c r="J97" s="80">
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C98" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E98" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D98" s="24" t="s">
+      <c r="F98" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="E98" s="61">
+      <c r="G98" s="61">
         <v>0.64</v>
       </c>
-      <c r="F98" s="88">
+      <c r="H98" s="88">
         <f t="shared" si="2"/>
         <v>0.64</v>
       </c>
-      <c r="G98" s="80">
+      <c r="I98" s="80">
         <v>0.64</v>
       </c>
-      <c r="H98" s="80">
+      <c r="J98" s="80">
         <v>0.64</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="s">
         <v>367</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C99" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E99" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="F99" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="E99" s="61">
+      <c r="G99" s="61">
         <v>8</v>
       </c>
-      <c r="F99" s="88">
+      <c r="H99" s="88">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G99" s="80">
+      <c r="I99" s="80">
         <v>8</v>
       </c>
-      <c r="H99" s="80">
+      <c r="J99" s="80">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
         <v>368</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C100" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E100" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="D100" s="24" t="s">
+      <c r="F100" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="E100" s="61">
+      <c r="G100" s="61">
         <v>10</v>
       </c>
-      <c r="F100" s="88">
+      <c r="H100" s="88">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G100" s="80">
+      <c r="I100" s="80">
         <v>10</v>
       </c>
-      <c r="H100" s="80">
+      <c r="J100" s="80">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
         <v>369</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C101" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E101" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="D101" s="24" t="s">
+      <c r="F101" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="E101" s="61">
+      <c r="G101" s="61">
         <v>8</v>
       </c>
-      <c r="F101" s="88">
+      <c r="H101" s="88">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G101" s="80">
+      <c r="I101" s="80">
         <v>8</v>
       </c>
-      <c r="H101" s="80">
+      <c r="J101" s="80">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
         <v>384</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C102" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E102" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="D102" s="24" t="s">
+      <c r="F102" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E102" s="61">
+      <c r="G102" s="61">
         <v>1</v>
       </c>
-      <c r="F102" s="88">
+      <c r="H102" s="88">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G102" s="80">
+      <c r="I102" s="80">
         <v>1</v>
       </c>
-      <c r="H102" s="80">
+      <c r="J102" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>386</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C103" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E103" s="24" t="s">
         <v>387</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="F103" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="E103" s="61">
+      <c r="G103" s="61">
         <v>0.5</v>
       </c>
-      <c r="F103" s="88">
+      <c r="H103" s="88">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="G103" s="80">
+      <c r="I103" s="80">
         <v>0.5</v>
       </c>
-      <c r="H103" s="80">
+      <c r="J103" s="80">
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="s">
         <v>388</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C104" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E104" s="24" t="s">
         <v>389</v>
       </c>
-      <c r="D104" s="24" t="s">
+      <c r="F104" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E104" s="61">
+      <c r="G104" s="61">
         <v>0</v>
       </c>
-      <c r="F104" s="88">
+      <c r="H104" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G104" s="80">
+      <c r="I104" s="80">
         <v>0</v>
       </c>
-      <c r="H104" s="80">
+      <c r="J104" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="s">
         <v>390</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C105" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E105" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="D105" s="24" t="s">
+      <c r="F105" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E105" s="61">
+      <c r="G105" s="61">
         <v>1589759.9999999998</v>
       </c>
-      <c r="F105" s="88">
+      <c r="H105" s="88">
         <f t="shared" si="2"/>
         <v>1589759.9999999998</v>
       </c>
-      <c r="G105" s="85">
+      <c r="I105" s="85">
         <v>1589759.9999999998</v>
       </c>
-      <c r="H105" s="85">
+      <c r="J105" s="85">
         <v>1589759.9999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
         <v>392</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C106" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E106" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="D106" s="24" t="s">
+      <c r="F106" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E106" s="61">
+      <c r="G106" s="61">
         <v>6171428.5714285718</v>
       </c>
-      <c r="F106" s="88">
+      <c r="H106" s="88">
         <f t="shared" si="2"/>
         <v>6171428.5714285718</v>
       </c>
-      <c r="G106" s="85">
+      <c r="I106" s="85">
         <v>6171428.5714285718</v>
       </c>
-      <c r="H106" s="85">
+      <c r="J106" s="85">
         <v>6171428.5714285718</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
         <v>394</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C107" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E107" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="D107" s="24" t="s">
+      <c r="F107" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E107" s="61">
+      <c r="G107" s="61">
         <v>6171428.5714285718</v>
       </c>
-      <c r="F107" s="88">
+      <c r="H107" s="88">
         <f t="shared" si="2"/>
         <v>6171428.5714285718</v>
       </c>
-      <c r="G107" s="85">
+      <c r="I107" s="85">
         <v>6171428.5714285718</v>
       </c>
-      <c r="H107" s="85">
+      <c r="J107" s="85">
         <v>6171428.5714285718</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
         <v>422</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C108" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E108" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="D108" s="24" t="s">
+      <c r="F108" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="E108" s="70">
+      <c r="G108" s="70">
         <v>100</v>
       </c>
-      <c r="F108" s="88">
+      <c r="H108" s="88">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G108" s="85">
+      <c r="I108" s="85">
         <v>100</v>
       </c>
-      <c r="H108" s="85">
+      <c r="J108" s="85">
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
         <v>424</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C109" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E109" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="D109" s="24" t="s">
+      <c r="F109" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="E109" s="70">
+      <c r="G109" s="70">
         <v>280800</v>
       </c>
-      <c r="F109" s="88">
+      <c r="H109" s="88">
         <f t="shared" si="2"/>
         <v>280800</v>
       </c>
-      <c r="G109" s="85">
+      <c r="I109" s="85">
         <v>280800</v>
       </c>
-      <c r="H109" s="85">
+      <c r="J109" s="85">
         <v>280800</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="23" t="s">
         <v>426</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C110" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E110" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="D110" s="24" t="s">
+      <c r="F110" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="E110" s="70">
+      <c r="G110" s="70">
         <v>1.2847222222222224E-5</v>
       </c>
-      <c r="F110" s="88">
+      <c r="H110" s="88">
         <f t="shared" si="2"/>
         <v>1.2847222222222224E-5</v>
       </c>
-      <c r="G110" s="85">
+      <c r="I110" s="85">
         <v>1.2847222222222224E-5</v>
       </c>
-      <c r="H110" s="85">
+      <c r="J110" s="85">
         <v>1.2847222222222224E-5</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="23" t="s">
         <v>428</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C111" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E111" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="D111" s="24" t="s">
+      <c r="F111" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="E111" s="70">
+      <c r="G111" s="70">
         <v>100</v>
       </c>
-      <c r="F111" s="88">
+      <c r="H111" s="88">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G111" s="85">
+      <c r="I111" s="85">
         <v>100</v>
       </c>
-      <c r="H111" s="85">
+      <c r="J111" s="85">
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="23" t="s">
         <v>430</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C112" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E112" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="D112" s="24" t="s">
+      <c r="F112" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="E112" s="70">
+      <c r="G112" s="70">
         <v>459648</v>
       </c>
-      <c r="F112" s="88">
+      <c r="H112" s="88">
         <f t="shared" si="2"/>
         <v>459648</v>
       </c>
-      <c r="G112" s="85">
+      <c r="I112" s="85">
         <v>459648</v>
       </c>
-      <c r="H112" s="85">
+      <c r="J112" s="85">
         <v>459648</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="23" t="s">
         <v>432</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C113" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E113" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="F113" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="E113" s="70">
+      <c r="G113" s="70">
         <v>1.2847222222222224E-5</v>
       </c>
-      <c r="F113" s="88">
+      <c r="H113" s="88">
         <f t="shared" si="2"/>
         <v>1.2847222222222224E-5</v>
       </c>
-      <c r="G113" s="85">
+      <c r="I113" s="85">
         <v>1.2847222222222224E-5</v>
       </c>
-      <c r="H113" s="85">
+      <c r="J113" s="85">
         <v>1.2847222222222224E-5</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="23" t="s">
         <v>396</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C114" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E114" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="D114" s="24" t="s">
+      <c r="F114" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E114" s="70">
+      <c r="G114" s="70">
         <v>21600</v>
       </c>
-      <c r="F114" s="88">
+      <c r="H114" s="88">
         <f t="shared" si="2"/>
         <v>21600</v>
       </c>
-      <c r="G114" s="85">
+      <c r="I114" s="85">
         <v>21600</v>
       </c>
-      <c r="H114" s="85">
+      <c r="J114" s="85">
         <v>21600</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="23" t="s">
         <v>398</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C115" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E115" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="D115" s="24" t="s">
+      <c r="F115" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E115" s="70">
+      <c r="G115" s="70">
         <v>172800</v>
       </c>
-      <c r="F115" s="88">
+      <c r="H115" s="88">
         <f t="shared" si="2"/>
         <v>172800</v>
       </c>
-      <c r="G115" s="92">
+      <c r="I115" s="92">
         <v>43200</v>
       </c>
-      <c r="H115" s="92">
+      <c r="J115" s="92">
         <v>43200</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C116" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E116" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="F116" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E116" s="53">
+      <c r="G116" s="53">
         <v>0.8</v>
       </c>
-      <c r="F116" s="88">
+      <c r="H116" s="88">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="G116" s="80">
+      <c r="I116" s="80">
         <v>0.8</v>
       </c>
-      <c r="H116" s="80">
+      <c r="J116" s="80">
         <v>0.8</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C117" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E117" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D117" s="14" t="s">
+      <c r="F117" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E117" s="45">
+      <c r="G117" s="45">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="F117" s="88">
+      <c r="H117" s="88">
         <f t="shared" si="2"/>
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="G117" s="81">
+      <c r="I117" s="81">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="H117" s="81">
+      <c r="J117" s="81">
         <v>2.0833333333333335E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C118" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E118" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D118" s="14" t="s">
+      <c r="F118" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E118" s="45">
+      <c r="G118" s="45">
         <v>5.7899999999999998E-7</v>
       </c>
-      <c r="F118" s="88">
+      <c r="H118" s="88">
         <f t="shared" si="2"/>
         <v>5.7899999999999998E-7</v>
       </c>
-      <c r="G118" s="80">
+      <c r="I118" s="80">
         <v>5.7899999999999998E-7</v>
       </c>
-      <c r="H118" s="80">
+      <c r="J118" s="80">
         <v>5.7899999999999998E-7</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C119" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E119" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="F119" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E119" s="45">
+      <c r="G119" s="45">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="F119" s="88">
+      <c r="H119" s="88">
         <f t="shared" si="2"/>
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="G119" s="81">
+      <c r="I119" s="81">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="H119" s="81">
+      <c r="J119" s="81">
         <v>2.0833333333333335E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>454</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C120" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E120" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="F120" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E120" s="45">
+      <c r="G120" s="45">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F120" s="88">
+      <c r="H120" s="88">
         <f t="shared" si="2"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G120" s="81">
+      <c r="I120" s="81">
         <v>0</v>
       </c>
-      <c r="H120" s="81">
+      <c r="J120" s="81">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>456</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C121" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E121" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="F121" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E121" s="45">
+      <c r="G121" s="45">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F121" s="88">
+      <c r="H121" s="88">
         <f t="shared" si="2"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G121" s="81">
+      <c r="I121" s="81">
         <v>0</v>
       </c>
-      <c r="H121" s="81">
+      <c r="J121" s="81">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="71" t="s">
         <v>445</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C122" s="72" t="s">
+        <v>477</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E122" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="D122" s="72" t="s">
+      <c r="F122" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="E122" s="73"/>
-      <c r="F122" s="88">
+      <c r="G122" s="73"/>
+      <c r="H122" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G122" s="93">
-        <f>F122</f>
+      <c r="I122" s="93">
+        <f>H122</f>
         <v>0</v>
       </c>
-      <c r="H122" s="93">
-        <f>G122</f>
+      <c r="J122" s="93">
+        <f>I122</f>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="71" t="s">
         <v>67</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C123" s="72" t="s">
+        <v>477</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E123" s="72" t="s">
         <v>446</v>
       </c>
-      <c r="D123" s="72" t="s">
+      <c r="F123" s="72" t="s">
         <v>447</v>
       </c>
-      <c r="E123" s="74"/>
-      <c r="F123" s="88">
+      <c r="G123" s="74"/>
+      <c r="H123" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G123" s="93">
-        <f t="shared" ref="G123:H124" si="3">F123</f>
+      <c r="I123" s="93">
+        <f t="shared" ref="I123:J124" si="3">H123</f>
         <v>0</v>
       </c>
-      <c r="H123" s="93">
+      <c r="J123" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="71" t="s">
         <v>450</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C124" s="72" t="s">
+        <v>477</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E124" s="72" t="s">
         <v>451</v>
       </c>
-      <c r="D124" s="72" t="s">
+      <c r="F124" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="E124" s="74" t="s">
+      <c r="G124" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="F124" s="88" t="str">
+      <c r="H124" s="88" t="str">
         <f t="shared" si="2"/>
         <v>False</v>
       </c>
-      <c r="G124" s="93" t="str">
+      <c r="I124" s="93" t="str">
         <f t="shared" si="3"/>
         <v>False</v>
       </c>
-      <c r="H124" s="93" t="str">
+      <c r="J124" s="93" t="str">
         <f t="shared" si="3"/>
         <v>False</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
         <v>66</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C125" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E125" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D125" s="22" t="s">
+      <c r="F125" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="E125" s="60">
+      <c r="G125" s="60">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F125" s="88">
+      <c r="H125" s="88">
         <f t="shared" si="2"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G125" s="86">
+      <c r="I125" s="86">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H125" s="86">
+      <c r="J125" s="86">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
         <v>442</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C126" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E126" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="D126" s="22" t="s">
+      <c r="F126" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="E126" s="69">
+      <c r="G126" s="69">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="F126" s="88">
+      <c r="H126" s="88">
         <f t="shared" si="2"/>
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="G126" s="86">
+      <c r="I126" s="86">
         <v>4.9999999999999999E-13</v>
       </c>
-      <c r="H126" s="86">
+      <c r="J126" s="86">
         <v>4.9999999999999999E-13</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
         <v>229</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C127" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E127" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="D127" s="22" t="s">
+      <c r="F127" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E127" s="60">
+      <c r="G127" s="60">
         <v>10</v>
       </c>
-      <c r="F127" s="88">
+      <c r="H127" s="88">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G127" s="80">
+      <c r="I127" s="80">
         <v>10</v>
       </c>
-      <c r="H127" s="80">
+      <c r="J127" s="80">
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C128" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E128" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="D128" s="22" t="s">
+      <c r="F128" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="E128" s="60">
+      <c r="G128" s="60">
         <v>-0.04</v>
       </c>
-      <c r="F128" s="88">
+      <c r="H128" s="88">
         <f t="shared" si="2"/>
         <v>-0.04</v>
       </c>
-      <c r="G128" s="80">
+      <c r="I128" s="80">
         <v>-0.04</v>
       </c>
-      <c r="H128" s="80">
+      <c r="J128" s="80">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C129" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E129" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="D129" s="22" t="s">
+      <c r="F129" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E129" s="60">
+      <c r="G129" s="60">
         <v>2.9</v>
       </c>
-      <c r="F129" s="88">
+      <c r="H129" s="88">
         <f t="shared" si="2"/>
         <v>2.9</v>
       </c>
-      <c r="G129" s="80">
+      <c r="I129" s="80">
         <v>2.9</v>
       </c>
-      <c r="H129" s="80">
+      <c r="J129" s="80">
         <v>2.9</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
         <v>232</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C130" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E130" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="D130" s="22" t="s">
+      <c r="F130" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E130" s="60">
+      <c r="G130" s="60">
         <v>1</v>
       </c>
-      <c r="F130" s="88">
+      <c r="H130" s="88">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G130" s="80">
+      <c r="I130" s="80">
         <v>1</v>
       </c>
-      <c r="H130" s="80">
+      <c r="J130" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C131" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E131" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="D131" s="22" t="s">
+      <c r="F131" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="E131" s="60">
+      <c r="G131" s="60">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="F131" s="88">
+      <c r="H131" s="88">
         <f t="shared" si="2"/>
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="G131" s="83">
+      <c r="I131" s="83">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="H131" s="83">
+      <c r="J131" s="83">
         <v>1.9999999999999999E-7</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
         <v>233</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C132" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E132" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="D132" s="22" t="s">
+      <c r="F132" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E132" s="60">
+      <c r="G132" s="60">
         <v>10</v>
       </c>
-      <c r="F132" s="88">
-        <f t="shared" ref="F132:F195" si="4">E132</f>
+      <c r="H132" s="88">
+        <f t="shared" ref="H132:H195" si="4">G132</f>
         <v>10</v>
       </c>
-      <c r="G132" s="80">
+      <c r="I132" s="80">
         <v>10</v>
       </c>
-      <c r="H132" s="80">
+      <c r="J132" s="80">
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
         <v>234</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C133" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E133" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="D133" s="22" t="s">
+      <c r="F133" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="E133" s="60">
+      <c r="G133" s="60">
         <v>-0.04</v>
       </c>
-      <c r="F133" s="88">
+      <c r="H133" s="88">
         <f t="shared" si="4"/>
         <v>-0.04</v>
       </c>
-      <c r="G133" s="80">
+      <c r="I133" s="80">
         <v>-0.04</v>
       </c>
-      <c r="H133" s="80">
+      <c r="J133" s="80">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
         <v>235</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C134" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E134" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="D134" s="22" t="s">
+      <c r="F134" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E134" s="60">
+      <c r="G134" s="60">
         <v>2.9</v>
       </c>
-      <c r="F134" s="88">
+      <c r="H134" s="88">
         <f t="shared" si="4"/>
         <v>2.9</v>
       </c>
-      <c r="G134" s="80">
+      <c r="I134" s="80">
         <v>2.9</v>
       </c>
-      <c r="H134" s="80">
+      <c r="J134" s="80">
         <v>2.9</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
         <v>236</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C135" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E135" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="D135" s="22" t="s">
+      <c r="F135" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E135" s="60">
+      <c r="G135" s="60">
         <v>1</v>
       </c>
-      <c r="F135" s="88">
+      <c r="H135" s="88">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G135" s="80">
+      <c r="I135" s="80">
         <v>1</v>
       </c>
-      <c r="H135" s="80">
+      <c r="J135" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
         <v>69</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C136" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E136" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="D136" s="22" t="s">
+      <c r="F136" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E136" s="60">
+      <c r="G136" s="60">
         <v>0</v>
       </c>
-      <c r="F136" s="88">
+      <c r="H136" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G136" s="80">
+      <c r="I136" s="80">
         <v>0</v>
       </c>
-      <c r="H136" s="80">
+      <c r="J136" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="75" t="s">
         <v>70</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C137" s="76" t="s">
+        <v>477</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E137" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="D137" s="76" t="s">
+      <c r="F137" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="E137" s="69">
+      <c r="G137" s="69">
         <v>1.6666666666666666E-4</v>
       </c>
-      <c r="F137" s="88">
+      <c r="H137" s="88">
         <f t="shared" si="4"/>
         <v>1.6666666666666666E-4</v>
       </c>
-      <c r="G137" s="83">
+      <c r="I137" s="83">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="H137" s="83">
+      <c r="J137" s="83">
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C138" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E138" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="D138" s="24" t="s">
+      <c r="F138" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="E138" s="49">
+      <c r="G138" s="49">
         <v>0</v>
       </c>
-      <c r="F138" s="88">
+      <c r="H138" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G138" s="80">
+      <c r="I138" s="80">
         <v>0</v>
       </c>
-      <c r="H138" s="80">
+      <c r="J138" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C139" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E139" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D139" s="24" t="s">
+      <c r="F139" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="E139" s="49">
+      <c r="G139" s="49">
         <v>2E-3</v>
       </c>
-      <c r="F139" s="88">
+      <c r="H139" s="88">
         <f t="shared" si="4"/>
         <v>2E-3</v>
       </c>
-      <c r="G139" s="80">
+      <c r="I139" s="80">
         <v>2E-3</v>
       </c>
-      <c r="H139" s="80">
+      <c r="J139" s="80">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C140" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E140" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="D140" s="24" t="s">
+      <c r="F140" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="E140" s="49">
+      <c r="G140" s="49">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="F140" s="88">
+      <c r="H140" s="88">
         <f t="shared" si="4"/>
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="G140" s="83">
+      <c r="I140" s="83">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="H140" s="83">
+      <c r="J140" s="83">
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="23" t="s">
         <v>71</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C141" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E141" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="D141" s="24" t="s">
+      <c r="F141" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="E141" s="49">
+      <c r="G141" s="49">
         <v>3.7699999999999999E-10</v>
       </c>
-      <c r="F141" s="88">
+      <c r="H141" s="88">
         <f t="shared" si="4"/>
         <v>3.7699999999999999E-10</v>
       </c>
-      <c r="G141" s="83">
+      <c r="I141" s="83">
         <v>3.7699999999999999E-10</v>
       </c>
-      <c r="H141" s="83">
+      <c r="J141" s="83">
         <v>3.7699999999999999E-10</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="23" t="s">
         <v>237</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C142" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E142" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="D142" s="24" t="s">
+      <c r="F142" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E142" s="49">
+      <c r="G142" s="49">
         <v>20</v>
       </c>
-      <c r="F142" s="88">
+      <c r="H142" s="88">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="G142" s="80">
+      <c r="I142" s="80">
         <v>20</v>
       </c>
-      <c r="H142" s="80">
+      <c r="J142" s="80">
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="23" t="s">
         <v>238</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C143" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E143" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="D143" s="24" t="s">
+      <c r="F143" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="E143" s="49">
+      <c r="G143" s="49">
         <v>-0.06</v>
       </c>
-      <c r="F143" s="88">
+      <c r="H143" s="88">
         <f t="shared" si="4"/>
         <v>-0.06</v>
       </c>
-      <c r="G143" s="80">
+      <c r="I143" s="80">
         <v>-0.06</v>
       </c>
-      <c r="H143" s="80">
+      <c r="J143" s="80">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="23" t="s">
         <v>239</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C144" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E144" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="D144" s="24" t="s">
+      <c r="F144" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E144" s="49">
+      <c r="G144" s="49">
         <v>0.89100000000000001</v>
       </c>
-      <c r="F144" s="88">
+      <c r="H144" s="88">
         <f t="shared" si="4"/>
         <v>0.89100000000000001</v>
       </c>
-      <c r="G144" s="80">
+      <c r="I144" s="80">
         <v>0.89100000000000001</v>
       </c>
-      <c r="H144" s="80">
+      <c r="J144" s="80">
         <v>0.89100000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="23" t="s">
         <v>240</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C145" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E145" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="D145" s="24" t="s">
+      <c r="F145" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E145" s="49">
+      <c r="G145" s="49">
         <v>1</v>
       </c>
-      <c r="F145" s="88">
+      <c r="H145" s="88">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G145" s="80">
+      <c r="I145" s="80">
         <v>1</v>
       </c>
-      <c r="H145" s="80">
+      <c r="J145" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="23" t="s">
         <v>72</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C146" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E146" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D146" s="24" t="s">
+      <c r="F146" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="E146" s="49">
+      <c r="G146" s="49">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="F146" s="88">
+      <c r="H146" s="88">
         <f t="shared" si="4"/>
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="G146" s="83">
+      <c r="I146" s="83">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="H146" s="83">
+      <c r="J146" s="83">
         <v>4.0000000000000003E-5</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C147" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E147" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D147" s="14" t="s">
+      <c r="F147" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="E147" s="45">
+      <c r="G147" s="45">
         <v>5.8333333333333335E-9</v>
       </c>
-      <c r="F147" s="88">
+      <c r="H147" s="88">
         <f t="shared" si="4"/>
         <v>5.8333333333333335E-9</v>
       </c>
-      <c r="G147" s="83">
+      <c r="I147" s="83">
         <v>5.8333333333333335E-9</v>
       </c>
-      <c r="H147" s="83">
+      <c r="J147" s="83">
         <v>5.8333333333333335E-9</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>241</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C148" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E148" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="D148" s="14" t="s">
+      <c r="F148" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E148" s="53">
+      <c r="G148" s="53">
         <v>20</v>
       </c>
-      <c r="F148" s="88">
+      <c r="H148" s="88">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="G148" s="80">
+      <c r="I148" s="80">
         <v>20</v>
       </c>
-      <c r="H148" s="80">
+      <c r="J148" s="80">
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
         <v>242</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C149" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E149" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D149" s="14" t="s">
+      <c r="F149" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="E149" s="53">
+      <c r="G149" s="53">
         <v>-0.06</v>
       </c>
-      <c r="F149" s="88">
+      <c r="H149" s="88">
         <f t="shared" si="4"/>
         <v>-0.06</v>
       </c>
-      <c r="G149" s="80">
+      <c r="I149" s="80">
         <v>-0.06</v>
       </c>
-      <c r="H149" s="80">
+      <c r="J149" s="80">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
         <v>243</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C150" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E150" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="D150" s="14" t="s">
+      <c r="F150" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E150" s="53">
+      <c r="G150" s="53">
         <v>0.89100000000000001</v>
       </c>
-      <c r="F150" s="88">
+      <c r="H150" s="88">
         <f t="shared" si="4"/>
         <v>0.89100000000000001</v>
       </c>
-      <c r="G150" s="80">
+      <c r="I150" s="80">
         <v>0.89100000000000001</v>
       </c>
-      <c r="H150" s="80">
+      <c r="J150" s="80">
         <v>0.89100000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
         <v>244</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C151" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E151" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="D151" s="14" t="s">
+      <c r="F151" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E151" s="53">
+      <c r="G151" s="53">
         <v>1</v>
       </c>
-      <c r="F151" s="88">
+      <c r="H151" s="88">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G151" s="80">
+      <c r="I151" s="80">
         <v>1</v>
       </c>
-      <c r="H151" s="80">
+      <c r="J151" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C152" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E152" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D152" s="14" t="s">
+      <c r="F152" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E152" s="53">
+      <c r="G152" s="53">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="F152" s="88">
+      <c r="H152" s="88">
         <f t="shared" si="4"/>
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="G152" s="83">
+      <c r="I152" s="83">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="H152" s="83">
+      <c r="J152" s="83">
         <v>4.0000000000000003E-5</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C153" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E153" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="F153" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E153" s="44">
+      <c r="G153" s="44">
         <v>4.9999999999999998E-8</v>
       </c>
-      <c r="F153" s="88">
+      <c r="H153" s="88">
         <f t="shared" si="4"/>
         <v>4.9999999999999998E-8</v>
       </c>
-      <c r="G153" s="86">
+      <c r="I153" s="86">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="H153" s="86">
+      <c r="J153" s="86">
         <v>4.0000000000000001E-8</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>219</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C154" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E154" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="D154" s="10" t="s">
+      <c r="F154" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E154" s="55">
+      <c r="G154" s="55">
         <v>20</v>
       </c>
-      <c r="F154" s="88">
+      <c r="H154" s="88">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="G154" s="80">
+      <c r="I154" s="80">
         <v>20</v>
       </c>
-      <c r="H154" s="80">
+      <c r="J154" s="80">
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>220</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C155" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E155" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="D155" s="10" t="s">
+      <c r="F155" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="E155" s="55">
+      <c r="G155" s="55">
         <v>-4.4200000000000003E-2</v>
       </c>
-      <c r="F155" s="88">
+      <c r="H155" s="88">
         <f t="shared" si="4"/>
         <v>-4.4200000000000003E-2</v>
       </c>
-      <c r="G155" s="80">
+      <c r="I155" s="80">
         <v>-4.4200000000000003E-2</v>
       </c>
-      <c r="H155" s="80">
+      <c r="J155" s="80">
         <v>-4.4200000000000003E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>221</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C156" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E156" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="D156" s="10" t="s">
+      <c r="F156" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E156" s="55">
+      <c r="G156" s="55">
         <v>1.55</v>
       </c>
-      <c r="F156" s="88">
+      <c r="H156" s="88">
         <f t="shared" si="4"/>
         <v>1.55</v>
       </c>
-      <c r="G156" s="80">
+      <c r="I156" s="80">
         <v>1.55</v>
       </c>
-      <c r="H156" s="80">
+      <c r="J156" s="80">
         <v>1.55</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>222</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C157" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E157" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="D157" s="10" t="s">
+      <c r="F157" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E157" s="55">
+      <c r="G157" s="55">
         <v>1</v>
       </c>
-      <c r="F157" s="88">
+      <c r="H157" s="88">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G157" s="80">
+      <c r="I157" s="80">
         <v>1</v>
       </c>
-      <c r="H157" s="80">
+      <c r="J157" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C158" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E158" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D158" s="10" t="s">
+      <c r="F158" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="E158" s="55">
+      <c r="G158" s="55">
         <v>2.7799999999999998E-4</v>
       </c>
-      <c r="F158" s="88">
+      <c r="H158" s="88">
         <f t="shared" si="4"/>
         <v>2.7799999999999998E-4</v>
       </c>
-      <c r="G158" s="80">
+      <c r="I158" s="80">
         <v>2.7799999999999998E-4</v>
       </c>
-      <c r="H158" s="80">
+      <c r="J158" s="80">
         <v>2.7799999999999998E-4</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="25" t="s">
         <v>78</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C159" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E159" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="D159" s="26" t="s">
+      <c r="F159" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="E159" s="65">
+      <c r="G159" s="65">
         <v>6.3200000000000001E-3</v>
       </c>
-      <c r="F159" s="88">
+      <c r="H159" s="88">
         <f t="shared" si="4"/>
         <v>6.3200000000000001E-3</v>
       </c>
-      <c r="G159" s="87">
+      <c r="I159" s="87">
         <f>0.0000001/2000</f>
         <v>4.9999999999999995E-11</v>
       </c>
-      <c r="H159" s="87">
+      <c r="J159" s="87">
         <f>0.0000001/2000</f>
         <v>4.9999999999999995E-11</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="s">
         <v>246</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C160" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E160" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="D160" s="26" t="s">
+      <c r="F160" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E160" s="65">
+      <c r="G160" s="65">
         <v>20</v>
       </c>
-      <c r="F160" s="88">
+      <c r="H160" s="88">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="G160" s="80">
+      <c r="I160" s="80">
         <v>20</v>
       </c>
-      <c r="H160" s="80">
+      <c r="J160" s="80">
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
         <v>247</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C161" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E161" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="D161" s="26" t="s">
+      <c r="F161" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="E161" s="65">
+      <c r="G161" s="65">
         <v>0</v>
       </c>
-      <c r="F161" s="88">
+      <c r="H161" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G161" s="80">
+      <c r="I161" s="80">
         <v>0</v>
       </c>
-      <c r="H161" s="80">
+      <c r="J161" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
         <v>248</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C162" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E162" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="D162" s="26" t="s">
+      <c r="F162" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E162" s="65">
+      <c r="G162" s="65">
         <v>1</v>
       </c>
-      <c r="F162" s="88">
+      <c r="H162" s="88">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G162" s="80">
+      <c r="I162" s="80">
         <v>1</v>
       </c>
-      <c r="H162" s="80">
+      <c r="J162" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="25" t="s">
         <v>249</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C163" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E163" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="D163" s="26" t="s">
+      <c r="F163" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E163" s="65">
+      <c r="G163" s="65">
         <v>0</v>
       </c>
-      <c r="F163" s="88">
+      <c r="H163" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G163" s="80">
+      <c r="I163" s="80">
         <v>0</v>
       </c>
-      <c r="H163" s="80">
+      <c r="J163" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="25" t="s">
         <v>79</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C164" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E164" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="D164" s="26" t="s">
+      <c r="F164" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E164" s="65">
+      <c r="G164" s="65">
         <v>0.4</v>
       </c>
-      <c r="F164" s="88">
+      <c r="H164" s="88">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G164" s="80">
+      <c r="I164" s="80">
         <v>0.4</v>
       </c>
-      <c r="H164" s="80">
+      <c r="J164" s="80">
         <v>0.4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="33" t="s">
         <v>80</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C165" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E165" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="D165" s="34" t="s">
+      <c r="F165" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="E165" s="50">
+      <c r="G165" s="50">
         <v>3.2100000000000002E-6</v>
       </c>
-      <c r="F165" s="88">
+      <c r="H165" s="88">
         <f t="shared" si="4"/>
         <v>3.2100000000000002E-6</v>
       </c>
-      <c r="G165" s="90">
+      <c r="I165" s="90">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="H165" s="90">
+      <c r="J165" s="90">
         <v>2.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="33" t="s">
         <v>250</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C166" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E166" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="D166" s="34" t="s">
+      <c r="F166" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="E166" s="66">
+      <c r="G166" s="66">
         <v>25</v>
       </c>
-      <c r="F166" s="88">
+      <c r="H166" s="88">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="G166" s="80">
+      <c r="I166" s="80">
         <v>25</v>
       </c>
-      <c r="H166" s="80">
+      <c r="J166" s="80">
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="33" t="s">
         <v>251</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C167" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E167" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="D167" s="34" t="s">
+      <c r="F167" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="E167" s="66">
+      <c r="G167" s="66">
         <v>0</v>
       </c>
-      <c r="F167" s="88">
+      <c r="H167" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G167" s="80">
+      <c r="I167" s="80">
         <v>0</v>
       </c>
-      <c r="H167" s="80">
+      <c r="J167" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="33" t="s">
         <v>252</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C168" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E168" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="D168" s="34" t="s">
+      <c r="F168" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="E168" s="66">
+      <c r="G168" s="66">
         <v>3.98</v>
       </c>
-      <c r="F168" s="88">
+      <c r="H168" s="88">
         <f t="shared" si="4"/>
         <v>3.98</v>
       </c>
-      <c r="G168" s="80">
+      <c r="I168" s="80">
         <v>3.98</v>
       </c>
-      <c r="H168" s="80">
+      <c r="J168" s="80">
         <v>3.98</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="33" t="s">
         <v>253</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C169" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E169" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="D169" s="34" t="s">
+      <c r="F169" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E169" s="66">
+      <c r="G169" s="66">
         <v>1</v>
       </c>
-      <c r="F169" s="88">
+      <c r="H169" s="88">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G169" s="80">
+      <c r="I169" s="80">
         <v>1</v>
       </c>
-      <c r="H169" s="80">
+      <c r="J169" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C170" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E170" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="D170" s="34" t="s">
+      <c r="F170" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="E170" s="50">
+      <c r="G170" s="50">
         <v>1.6666666666666666E-4</v>
       </c>
-      <c r="F170" s="88">
+      <c r="H170" s="88">
         <f t="shared" si="4"/>
         <v>1.6666666666666666E-4</v>
       </c>
-      <c r="G170" s="81">
+      <c r="I170" s="81">
         <v>1.6666666666666666E-4</v>
       </c>
-      <c r="H170" s="81">
+      <c r="J170" s="81">
         <v>1.6666666666666666E-4</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
         <v>254</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C171" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E171" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="D171" s="12" t="s">
+      <c r="F171" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="E171" s="46">
+      <c r="G171" s="46">
         <v>1E-8</v>
       </c>
-      <c r="F171" s="88">
+      <c r="H171" s="88">
         <f t="shared" si="4"/>
         <v>1E-8</v>
       </c>
-      <c r="G171" s="83">
+      <c r="I171" s="83">
         <v>1E-8</v>
       </c>
-      <c r="H171" s="83">
+      <c r="J171" s="83">
         <v>1E-8</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
         <v>255</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C172" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E172" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="D172" s="12" t="s">
+      <c r="F172" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E172" s="58">
+      <c r="G172" s="58">
         <v>20</v>
       </c>
-      <c r="F172" s="88">
+      <c r="H172" s="88">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="G172" s="80">
+      <c r="I172" s="80">
         <v>20</v>
       </c>
-      <c r="H172" s="80">
+      <c r="J172" s="80">
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
         <v>256</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C173" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E173" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="D173" s="12" t="s">
+      <c r="F173" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="E173" s="58">
+      <c r="G173" s="58">
         <v>0</v>
       </c>
-      <c r="F173" s="88">
+      <c r="H173" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G173" s="80">
+      <c r="I173" s="80">
         <v>0</v>
       </c>
-      <c r="H173" s="80">
+      <c r="J173" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
         <v>257</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C174" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E174" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="D174" s="12" t="s">
+      <c r="F174" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E174" s="58">
+      <c r="G174" s="58">
         <v>2</v>
       </c>
-      <c r="F174" s="88">
+      <c r="H174" s="88">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="G174" s="80">
+      <c r="I174" s="80">
         <v>2</v>
       </c>
-      <c r="H174" s="80">
+      <c r="J174" s="80">
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
         <v>258</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C175" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E175" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="D175" s="12" t="s">
+      <c r="F175" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E175" s="58">
+      <c r="G175" s="58">
         <v>1</v>
       </c>
-      <c r="F175" s="88">
+      <c r="H175" s="88">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G175" s="80">
+      <c r="I175" s="80">
         <v>1</v>
       </c>
-      <c r="H175" s="80">
+      <c r="J175" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
         <v>259</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C176" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E176" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="D176" s="12" t="s">
+      <c r="F176" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E176" s="46">
+      <c r="G176" s="46">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="F176" s="88">
+      <c r="H176" s="88">
         <f t="shared" si="4"/>
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="G176" s="81">
+      <c r="I176" s="81">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="H176" s="81">
+      <c r="J176" s="81">
         <v>8.3333333333333331E-5</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
         <v>260</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C177" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E177" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="D177" s="12" t="s">
+      <c r="F177" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E177" s="58">
+      <c r="G177" s="58">
         <v>1</v>
       </c>
-      <c r="F177" s="88">
+      <c r="H177" s="88">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G177" s="80">
+      <c r="I177" s="80">
         <v>1</v>
       </c>
-      <c r="H177" s="80">
+      <c r="J177" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="27" t="s">
         <v>261</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C178" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E178" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="D178" s="28" t="s">
+      <c r="F178" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="E178" s="51">
+      <c r="G178" s="51">
         <v>2.3533050791148895E-8</v>
       </c>
-      <c r="F178" s="88">
+      <c r="H178" s="88">
         <f t="shared" si="4"/>
         <v>2.3533050791148895E-8</v>
       </c>
-      <c r="G178" s="80">
+      <c r="I178" s="80">
         <v>2.3533050791148899E-8</v>
       </c>
-      <c r="H178" s="80">
+      <c r="J178" s="80">
         <v>2.3533050791148899E-8</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="27" t="s">
         <v>262</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C179" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E179" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="D179" s="28" t="s">
+      <c r="F179" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="E179" s="67">
+      <c r="G179" s="67">
         <v>20</v>
       </c>
-      <c r="F179" s="88">
+      <c r="H179" s="88">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="G179" s="80">
+      <c r="I179" s="80">
         <v>20</v>
       </c>
-      <c r="H179" s="80">
+      <c r="J179" s="80">
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="27" t="s">
         <v>263</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C180" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E180" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="D180" s="28" t="s">
+      <c r="F180" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="E180" s="67">
+      <c r="G180" s="67">
         <v>-0.187</v>
       </c>
-      <c r="F180" s="88">
+      <c r="H180" s="88">
         <f t="shared" si="4"/>
         <v>-0.187</v>
       </c>
-      <c r="G180" s="80">
+      <c r="I180" s="80">
         <v>-0.187</v>
       </c>
-      <c r="H180" s="80">
+      <c r="J180" s="80">
         <v>-0.187</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="27" t="s">
         <v>264</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C181" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E181" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="D181" s="28" t="s">
+      <c r="F181" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E181" s="67">
+      <c r="G181" s="67">
         <v>2.48</v>
       </c>
-      <c r="F181" s="88">
+      <c r="H181" s="88">
         <f t="shared" si="4"/>
         <v>2.48</v>
       </c>
-      <c r="G181" s="80">
+      <c r="I181" s="80">
         <v>2.48</v>
       </c>
-      <c r="H181" s="80">
+      <c r="J181" s="80">
         <v>2.48</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="27" t="s">
         <v>265</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C182" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E182" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="D182" s="28" t="s">
+      <c r="F182" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E182" s="67">
+      <c r="G182" s="67">
         <v>1</v>
       </c>
-      <c r="F182" s="88">
+      <c r="H182" s="88">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G182" s="80">
+      <c r="I182" s="80">
         <v>1</v>
       </c>
-      <c r="H182" s="80">
+      <c r="J182" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="27" t="s">
         <v>266</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C183" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E183" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="D183" s="28" t="s">
+      <c r="F183" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="E183" s="51">
+      <c r="G183" s="51">
         <v>6.1060227588121015E-4</v>
       </c>
-      <c r="F183" s="88">
+      <c r="H183" s="88">
         <f t="shared" si="4"/>
         <v>6.1060227588121015E-4</v>
       </c>
-      <c r="G183" s="80">
+      <c r="I183" s="80">
         <v>6.1060227588121015E-4</v>
       </c>
-      <c r="H183" s="80">
+      <c r="J183" s="80">
         <v>6.1060227588121015E-4</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="23" t="s">
         <v>267</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C184" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E184" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="24" t="s">
+      <c r="F184" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="E184" s="49">
+      <c r="G184" s="49">
         <v>6.41E-9</v>
       </c>
-      <c r="F184" s="88">
+      <c r="H184" s="88">
         <f t="shared" si="4"/>
         <v>6.41E-9</v>
       </c>
-      <c r="G184" s="89">
+      <c r="I184" s="89">
         <v>3.9999999999999998E-7</v>
       </c>
-      <c r="H184" s="89">
+      <c r="J184" s="89">
         <v>3.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="23" t="s">
         <v>268</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C185" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E185" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="D185" s="24" t="s">
+      <c r="F185" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E185" s="61">
+      <c r="G185" s="61">
         <v>25</v>
       </c>
-      <c r="F185" s="88">
+      <c r="H185" s="88">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="G185" s="80">
+      <c r="I185" s="80">
         <v>25</v>
       </c>
-      <c r="H185" s="80">
+      <c r="J185" s="80">
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="23" t="s">
         <v>269</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C186" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E186" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="D186" s="24" t="s">
+      <c r="F186" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="E186" s="61">
+      <c r="G186" s="61">
         <v>0</v>
       </c>
-      <c r="F186" s="88">
+      <c r="H186" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G186" s="80">
+      <c r="I186" s="80">
         <v>0</v>
       </c>
-      <c r="H186" s="80">
+      <c r="J186" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="23" t="s">
         <v>270</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C187" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E187" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="D187" s="24" t="s">
+      <c r="F187" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E187" s="61">
+      <c r="G187" s="61">
         <v>3.98</v>
       </c>
-      <c r="F187" s="88">
+      <c r="H187" s="88">
         <f t="shared" si="4"/>
         <v>3.98</v>
       </c>
-      <c r="G187" s="80">
+      <c r="I187" s="80">
         <v>3.98</v>
       </c>
-      <c r="H187" s="80">
+      <c r="J187" s="80">
         <v>3.98</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="23" t="s">
         <v>271</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C188" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E188" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="D188" s="24" t="s">
+      <c r="F188" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E188" s="61">
+      <c r="G188" s="61">
         <v>1</v>
       </c>
-      <c r="F188" s="88">
+      <c r="H188" s="88">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G188" s="80">
+      <c r="I188" s="80">
         <v>1</v>
       </c>
-      <c r="H188" s="80">
+      <c r="J188" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="23" t="s">
         <v>272</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C189" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E189" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="D189" s="24" t="s">
+      <c r="F189" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="E189" s="49">
+      <c r="G189" s="49">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="F189" s="88">
+      <c r="H189" s="88">
         <f t="shared" si="4"/>
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="G189" s="81">
+      <c r="I189" s="81">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="H189" s="81">
+      <c r="J189" s="81">
         <v>8.3333333333333331E-5</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>273</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C190" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E190" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="D190" s="8" t="s">
+      <c r="F190" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="E190" s="43">
+      <c r="G190" s="43">
         <v>6.41E-9</v>
       </c>
-      <c r="F190" s="88">
+      <c r="H190" s="88">
         <f t="shared" si="4"/>
         <v>6.41E-9</v>
       </c>
-      <c r="G190" s="89">
+      <c r="I190" s="89">
         <v>3.9999999999999998E-7</v>
       </c>
-      <c r="H190" s="89">
+      <c r="J190" s="89">
         <v>3.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>274</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C191" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E191" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="D191" s="8" t="s">
+      <c r="F191" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E191" s="54">
+      <c r="G191" s="54">
         <v>25</v>
       </c>
-      <c r="F191" s="88">
+      <c r="H191" s="88">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="G191" s="80">
+      <c r="I191" s="80">
         <v>25</v>
       </c>
-      <c r="H191" s="80">
+      <c r="J191" s="80">
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>275</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C192" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E192" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="D192" s="8" t="s">
+      <c r="F192" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E192" s="54">
+      <c r="G192" s="54">
         <v>0</v>
       </c>
-      <c r="F192" s="88">
+      <c r="H192" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G192" s="80">
+      <c r="I192" s="80">
         <v>0</v>
       </c>
-      <c r="H192" s="80">
+      <c r="J192" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>276</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C193" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E193" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="D193" s="8" t="s">
+      <c r="F193" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E193" s="54">
+      <c r="G193" s="54">
         <v>3.98</v>
       </c>
-      <c r="F193" s="88">
+      <c r="H193" s="88">
         <f t="shared" si="4"/>
         <v>3.98</v>
       </c>
-      <c r="G193" s="80">
+      <c r="I193" s="80">
         <v>3.98</v>
       </c>
-      <c r="H193" s="80">
+      <c r="J193" s="80">
         <v>3.98</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>277</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C194" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E194" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="D194" s="8" t="s">
+      <c r="F194" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E194" s="54">
+      <c r="G194" s="54">
         <v>1</v>
       </c>
-      <c r="F194" s="88">
+      <c r="H194" s="88">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G194" s="80">
+      <c r="I194" s="80">
         <v>1</v>
       </c>
-      <c r="H194" s="80">
+      <c r="J194" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>278</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C195" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E195" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="D195" s="8" t="s">
+      <c r="F195" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="E195" s="43">
+      <c r="G195" s="43">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="F195" s="88">
+      <c r="H195" s="88">
         <f t="shared" si="4"/>
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="G195" s="81">
+      <c r="I195" s="81">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="H195" s="81">
+      <c r="J195" s="81">
         <v>8.3333333333333331E-5</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="29" t="s">
         <v>279</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C196" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E196" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="D196" s="30" t="s">
+      <c r="F196" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="E196" s="52">
+      <c r="G196" s="52">
         <v>3.205E-9</v>
       </c>
-      <c r="F196" s="88">
-        <f t="shared" ref="F196:F202" si="5">E196</f>
+      <c r="H196" s="88">
+        <f t="shared" ref="H196:H202" si="5">G196</f>
         <v>3.205E-9</v>
       </c>
-      <c r="G196" s="89">
+      <c r="I196" s="89">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="H196" s="89">
+      <c r="J196" s="89">
         <v>1.9999999999999999E-7</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="29" t="s">
         <v>280</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C197" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E197" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="D197" s="30" t="s">
+      <c r="F197" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="E197" s="68">
+      <c r="G197" s="68">
         <v>25</v>
       </c>
-      <c r="F197" s="88">
+      <c r="H197" s="88">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="G197" s="80">
+      <c r="I197" s="80">
         <v>25</v>
       </c>
-      <c r="H197" s="80">
+      <c r="J197" s="80">
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="29" t="s">
         <v>281</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C198" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E198" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="D198" s="30" t="s">
+      <c r="F198" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="E198" s="68">
+      <c r="G198" s="68">
         <v>0</v>
       </c>
-      <c r="F198" s="88">
+      <c r="H198" s="88">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G198" s="80">
+      <c r="I198" s="80">
         <v>0</v>
       </c>
-      <c r="H198" s="80">
+      <c r="J198" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="29" t="s">
         <v>282</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C199" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E199" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="D199" s="30" t="s">
+      <c r="F199" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="E199" s="68">
+      <c r="G199" s="68">
         <v>3.98</v>
       </c>
-      <c r="F199" s="88">
+      <c r="H199" s="88">
         <f t="shared" si="5"/>
         <v>3.98</v>
       </c>
-      <c r="G199" s="80">
+      <c r="I199" s="80">
         <v>3.98</v>
       </c>
-      <c r="H199" s="80">
+      <c r="J199" s="80">
         <v>3.98</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="29" t="s">
         <v>283</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C200" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E200" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="D200" s="30" t="s">
+      <c r="F200" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="E200" s="68">
+      <c r="G200" s="68">
         <v>1</v>
       </c>
-      <c r="F200" s="88">
+      <c r="H200" s="88">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G200" s="80">
+      <c r="I200" s="80">
         <v>1</v>
       </c>
-      <c r="H200" s="80">
+      <c r="J200" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="29" t="s">
         <v>284</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C201" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E201" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="D201" s="30" t="s">
+      <c r="F201" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="E201" s="52">
+      <c r="G201" s="52">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="F201" s="88">
+      <c r="H201" s="88">
         <f t="shared" si="5"/>
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="G201" s="81">
+      <c r="I201" s="81">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="H201" s="81">
+      <c r="J201" s="81">
         <v>8.3333333333333331E-5</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="31" t="s">
         <v>362</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C202" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E202" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="D202" s="32" t="s">
+      <c r="F202" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E202" s="39" t="s">
+      <c r="G202" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="F202" s="88" t="str">
+      <c r="H202" s="88" t="str">
         <f t="shared" si="5"/>
         <v>WHEAT</v>
       </c>
-      <c r="G202" s="83" t="s">
+      <c r="I202" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="H202" s="83" t="s">
+      <c r="J202" s="83" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G120:G121">
+  <conditionalFormatting sqref="I120:I121">
     <cfRule type="colorScale" priority="221">
       <colorScale>
         <cfvo type="min"/>
@@ -8162,7 +9384,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G125:H125">
+  <conditionalFormatting sqref="I125:J125">
     <cfRule type="colorScale" priority="217">
       <colorScale>
         <cfvo type="min"/>
@@ -8184,7 +9406,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G126:H126">
+  <conditionalFormatting sqref="I126:J126">
     <cfRule type="colorScale" priority="216">
       <colorScale>
         <cfvo type="min"/>
@@ -8206,7 +9428,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G131:H131">
+  <conditionalFormatting sqref="I131:J131">
     <cfRule type="colorScale" priority="214">
       <colorScale>
         <cfvo type="min"/>
@@ -8218,7 +9440,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G137:H137">
+  <conditionalFormatting sqref="I137:J137">
     <cfRule type="colorScale" priority="215">
       <colorScale>
         <cfvo type="min"/>
@@ -8250,7 +9472,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G153:H153">
+  <conditionalFormatting sqref="I153:J153">
     <cfRule type="colorScale" priority="213">
       <colorScale>
         <cfvo type="min"/>
@@ -8282,7 +9504,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G159:H159">
+  <conditionalFormatting sqref="I159:J159">
     <cfRule type="colorScale" priority="212">
       <colorScale>
         <cfvo type="min"/>
@@ -8314,7 +9536,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H120:H121">
+  <conditionalFormatting sqref="J120:J121">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
